--- a/data/trans_dic/P15D$nada-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1567296796057799</v>
+        <v>0.1540141454686105</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.113066504910081</v>
+        <v>0.114699790007403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0610964283076653</v>
+        <v>0.05896301634882435</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06564277925542003</v>
+        <v>0.0667738556206581</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03881392844615418</v>
+        <v>0.04054493418386315</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09341238695757302</v>
+        <v>0.1049070279041765</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0894229797062468</v>
+        <v>0.0919929071220634</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1014952204502115</v>
+        <v>0.1086877234416813</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1352170936071575</v>
+        <v>0.127678240008889</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.126690255863929</v>
+        <v>0.1255970094464048</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0910815992326541</v>
+        <v>0.09034981134287905</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1114927231525936</v>
+        <v>0.1086195019401858</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5752249699519981</v>
+        <v>0.5773220478656114</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2988860859357727</v>
+        <v>0.2931151480647424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2169689719535547</v>
+        <v>0.2114004393725608</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3125296857673469</v>
+        <v>0.2981401506938831</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3270268215825069</v>
+        <v>0.3563962041651473</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2627821124844217</v>
+        <v>0.2753757167572818</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2891312770352971</v>
+        <v>0.2778097062072439</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2755413851346001</v>
+        <v>0.295533759758731</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3881702826414634</v>
+        <v>0.3742192935349398</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2486576912727507</v>
+        <v>0.2447890471612818</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2110644911800009</v>
+        <v>0.2128026197534619</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2515020108200323</v>
+        <v>0.2438747442556306</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1703894657943637</v>
+        <v>0.1765355951474838</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2101768583513314</v>
+        <v>0.2115949259092378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03980829423557593</v>
+        <v>0.0420386973227091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07721445267590081</v>
+        <v>0.07977753721228495</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05716888512399414</v>
+        <v>0.05709450048206604</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2478474406681029</v>
+        <v>0.2524661291252996</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0430053444736764</v>
+        <v>0.043429295806364</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1082640008899357</v>
+        <v>0.1055158630403259</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1569095816906867</v>
+        <v>0.1517203399461637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2531310827616107</v>
+        <v>0.2529278395119349</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06379349552852534</v>
+        <v>0.0629165157225295</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1154123503666547</v>
+        <v>0.1111756429320785</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.477542342604761</v>
+        <v>0.4820808220842259</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3815682361857133</v>
+        <v>0.4035746196869596</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2406122784372464</v>
+        <v>0.2416597638763107</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2793034169336207</v>
+        <v>0.2774007030132442</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3267075836274052</v>
+        <v>0.2966079033182941</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4710967076614977</v>
+        <v>0.4633405885472089</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2484214286224943</v>
+        <v>0.2575308895985823</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2376210681387524</v>
+        <v>0.2397821305435965</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3765243635396576</v>
+        <v>0.3696130547450695</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3964251180843792</v>
+        <v>0.3935467711259611</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1990562266150555</v>
+        <v>0.1996039073340289</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2232019514014172</v>
+        <v>0.2212185891191547</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1617095054771892</v>
+        <v>0.1625965287702777</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1647918910287425</v>
+        <v>0.1653200369138109</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1899060439121057</v>
+        <v>0.2011639071737517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05950592890069693</v>
+        <v>0.05658455208563238</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07627697688161836</v>
+        <v>0.07535274405919991</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2162201597636619</v>
+        <v>0.2113392089141693</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.053638059534146</v>
+        <v>0.05633424843892966</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1443811871773493</v>
+        <v>0.1461599658976453</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1718358216907925</v>
+        <v>0.164000597660659</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2146265457838489</v>
+        <v>0.2152049730851729</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1415292736830004</v>
+        <v>0.145537387752708</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1083951805190987</v>
+        <v>0.1089608247054174</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4520279835309053</v>
+        <v>0.4543663906949471</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3637479150341922</v>
+        <v>0.3711189183841508</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4663647376458239</v>
+        <v>0.4692826284755139</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2004164379622898</v>
+        <v>0.1844687450329536</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.414649587068066</v>
+        <v>0.4262793516038199</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4656333761622224</v>
+        <v>0.4514757805465206</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2399915995585226</v>
+        <v>0.2564619200442664</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3165296854091589</v>
+        <v>0.3154776834072291</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3919165209869358</v>
+        <v>0.3928594770663124</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3670963893243401</v>
+        <v>0.3702121589791261</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3013824570522142</v>
+        <v>0.3142535619376198</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2208635867340844</v>
+        <v>0.2174941842978371</v>
       </c>
     </row>
     <row r="13">
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1298477945146685</v>
+        <v>0.134490423315085</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1088259260314802</v>
+        <v>0.09791758250235839</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1549141538845989</v>
+        <v>0.1543526987513638</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04402878930590878</v>
+        <v>0.04297562194808514</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08909764583478538</v>
+        <v>0.08904940588053392</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02770306510314411</v>
+        <v>0.02822716313577844</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1764940533858004</v>
+        <v>0.1762843792316068</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04352589696046328</v>
+        <v>0.04259558034600393</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1282294198542399</v>
+        <v>0.1228176434856551</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2509432611871552</v>
+        <v>0.2444394550485202</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4421742398641145</v>
+        <v>0.4424505466029234</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2870857831456705</v>
+        <v>0.2957684378195704</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3689719435803738</v>
+        <v>0.36101320107924</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4693171412572276</v>
+        <v>0.4648786266307641</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5319351412285209</v>
+        <v>0.5169518621462137</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3867811680838213</v>
+        <v>0.3490341535154739</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.307536259597375</v>
+        <v>0.310821034233951</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2454298770693111</v>
+        <v>0.2528684803301122</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4153695815806734</v>
+        <v>0.4153273795995461</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2462261971482612</v>
+        <v>0.2336592143295541</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3052761496870022</v>
+        <v>0.2912392225017664</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1942601134826126</v>
+        <v>0.1934365097140119</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1989876515295553</v>
+        <v>0.2054670861458213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.112969624444649</v>
+        <v>0.1135460216901495</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1066436414711335</v>
+        <v>0.1063412246143457</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1021128354509807</v>
+        <v>0.1072596429119606</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2266191341828957</v>
+        <v>0.2270252284064547</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09674754156564695</v>
+        <v>0.09372867318201458</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1435544128909936</v>
+        <v>0.1474579398457022</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1749303422991313</v>
+        <v>0.1769383264532439</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2294679292401141</v>
+        <v>0.2318643153666837</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1198810510752711</v>
+        <v>0.1157589622267603</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1394664381448748</v>
+        <v>0.1400915168852289</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3575106492060959</v>
+        <v>0.3554881343052875</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3106560245353798</v>
+        <v>0.3106081793367695</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2140381102910011</v>
+        <v>0.2226336618223491</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2057547508631796</v>
+        <v>0.2104399273231093</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2635291777773491</v>
+        <v>0.2628730227247473</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3430260369213836</v>
+        <v>0.3474460916905645</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1993488686920455</v>
+        <v>0.1959364844250065</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2325438645117814</v>
+        <v>0.2329983012079902</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.285127237907881</v>
+        <v>0.2940317308481946</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.307728320511123</v>
+        <v>0.3080463075255241</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1950362076553544</v>
+        <v>0.1942174435096524</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2070490366409481</v>
+        <v>0.2058638692610745</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2962</v>
+        <v>2911</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8512</v>
+        <v>8635</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4609</v>
+        <v>4448</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2745</v>
+        <v>2792</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>966</v>
+        <v>1009</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7613</v>
+        <v>8550</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6088</v>
+        <v>6263</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4931</v>
+        <v>5280</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5922</v>
+        <v>5592</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19863</v>
+        <v>19692</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13072</v>
+        <v>12967</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10078</v>
+        <v>9819</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10872</v>
+        <v>10911</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22500</v>
+        <v>22066</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16368</v>
+        <v>15948</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13068</v>
+        <v>12467</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8141</v>
+        <v>8872</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21418</v>
+        <v>22444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19686</v>
+        <v>18915</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13386</v>
+        <v>14357</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>17000</v>
+        <v>16389</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>38986</v>
+        <v>38379</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>30293</v>
+        <v>30542</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22735</v>
+        <v>22045</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5864</v>
+        <v>6075</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19887</v>
+        <v>20021</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1995</v>
+        <v>2106</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3813</v>
+        <v>3940</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20614</v>
+        <v>20998</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2089</v>
+        <v>2109</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7920</v>
+        <v>7719</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10176</v>
+        <v>9839</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>45005</v>
+        <v>44969</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6294</v>
+        <v>6208</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>14142</v>
+        <v>13623</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16434</v>
+        <v>16590</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36104</v>
+        <v>38187</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12055</v>
+        <v>12108</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13793</v>
+        <v>13699</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9944</v>
+        <v>9028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39182</v>
+        <v>38537</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12064</v>
+        <v>12507</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17383</v>
+        <v>17541</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24418</v>
+        <v>23970</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>70482</v>
+        <v>69970</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>19640</v>
+        <v>19694</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27350</v>
+        <v>27107</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7139</v>
+        <v>7178</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11139</v>
+        <v>11175</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9071</v>
+        <v>9609</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4441</v>
+        <v>4223</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1943</v>
+        <v>1920</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13506</v>
+        <v>13201</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2689</v>
+        <v>2824</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8053</v>
+        <v>8152</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11964</v>
+        <v>11418</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>27914</v>
+        <v>27989</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13856</v>
+        <v>14249</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>14135</v>
+        <v>14209</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19957</v>
+        <v>20060</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24588</v>
+        <v>25087</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22276</v>
+        <v>22415</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14956</v>
+        <v>13766</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10564</v>
+        <v>10860</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29084</v>
+        <v>28200</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12033</v>
+        <v>12858</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17655</v>
+        <v>17596</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27287</v>
+        <v>27352</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>47744</v>
+        <v>48149</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>29507</v>
+        <v>30767</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>28801</v>
+        <v>28362</v>
       </c>
     </row>
     <row r="16">
@@ -2143,37 +2143,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5743</v>
+        <v>5948</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6007</v>
+        <v>5405</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4071</v>
+        <v>4056</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4595</v>
+        <v>4593</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>12443</v>
+        <v>12428</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2078</v>
+        <v>2034</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13692</v>
+        <v>13114</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6191</v>
+        <v>6030</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19555</v>
+        <v>19567</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7266</v>
+        <v>7486</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20367</v>
+        <v>19928</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5113</v>
+        <v>5065</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13977</v>
+        <v>13583</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8676</v>
+        <v>7829</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15862</v>
+        <v>16032</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8729</v>
+        <v>8993</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>29284</v>
+        <v>29281</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>11755</v>
+        <v>11155</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>32597</v>
+        <v>31098</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23726</v>
+        <v>23625</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>56060</v>
+        <v>57885</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22438</v>
+        <v>22552</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23571</v>
+        <v>23504</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9364</v>
+        <v>9836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>57428</v>
+        <v>57531</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>18306</v>
+        <v>17735</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32887</v>
+        <v>33781</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>37406</v>
+        <v>37836</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>122797</v>
+        <v>124079</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>46494</v>
+        <v>44895</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>62776</v>
+        <v>63057</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>43664</v>
+        <v>43417</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>87519</v>
+        <v>87506</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42512</v>
+        <v>44219</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>45477</v>
+        <v>46512</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24166</v>
+        <v>24106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>86928</v>
+        <v>88048</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>37720</v>
+        <v>37075</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>53273</v>
+        <v>53377</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>60970</v>
+        <v>62874</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>164677</v>
+        <v>164847</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>75642</v>
+        <v>75324</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>93195</v>
+        <v>92662</v>
       </c>
     </row>
     <row r="24">
